--- a/biology/Botanique/Phacelia/Phacelia.xlsx
+++ b/biology/Botanique/Phacelia/Phacelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phacelia est un genre botanique de la famille des Hydrophyllaceae selon la classification classique de Cronquist (1981)[1], des Boraginaceae selon la classification phylogénétique APG IV (2016)[2]. Il comprend environ cent cinquante espèces de plantes annuelles, bisannuelles ou vivaces dont certaines sont arbustives, toutes originaires des Amériques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phacelia est un genre botanique de la famille des Hydrophyllaceae selon la classification classique de Cronquist (1981), des Boraginaceae selon la classification phylogénétique APG IV (2016). Il comprend environ cent cinquante espèces de plantes annuelles, bisannuelles ou vivaces dont certaines sont arbustives, toutes originaires des Amériques.
 Le nom Phacelia vient du grec φάκελος (phákelos) qui désigne le faisceau, le fagot ou la fascine, faisant allusion aux crosses en faisceau de la floraison des espèces du genre.
 Le contact avec certaines espèces de phacélies peut provoquer, chez des individus sensibles, une éruption cutanée très désagréable semblable à celle provoquée par les espèces du genre Toxicodendron ou par le sumac grimpant.
 On plante souvent des phacélies en bordure de champ pour nourrir les syrphes, dont les larves dévorent les pucerons.
@@ -515,7 +527,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phacelia argillacea (endémique de l'Utah)
